--- a/RMPP/RMPP_Unit07_Exa7.3D.xlsx
+++ b/RMPP/RMPP_Unit07_Exa7.3D.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_1E9BC8BDDCD9A6D3DA52581B2F949361644EB8D3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D1C84FB-FE70-4FC1-8F09-9E0B6AE1DD4B}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="4320" yWindow="2055" windowWidth="26835" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="12">
   <si>
     <t>Area</t>
   </si>
@@ -44,12 +63,26 @@
   <si>
     <t>Area 1</t>
   </si>
+  <si>
+    <t>Area 2</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>This analysis compares brand preferences between two demographic areas. In Area 1, about 15.7% choose Brand A, 24.3% pick Brand B, and 60% prefer other brands. In Area 2, around 21.1% opt for Brand A, 33.3% go for Brand B, and 45.6% choose other brands.
+These results show that Brand B is clearly more popular in Area 2. Meanwhile, a higher proportion of consumers in Area 1 pick other brands rather than A or B. Overall, Area 2 has greater preference for the two main brands (A and B), while Area 1 seems more open to alternatives outside these main brands.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -64,6 +97,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,10 +120,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -98,19 +136,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570827</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFC7972-2606-97CC-7F18-A3B6FCB8870D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="76200"/>
+          <a:ext cx="5380952" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +267,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +512,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -414,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -424,8 +550,11 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -433,8 +562,9 @@
         <v>4</v>
       </c>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -445,8 +575,12 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -456,9 +590,19 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2">
+        <f>COUNTIF(B2:B71,"A")</f>
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <f>COUNTIF(B72:B161,"A")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -468,9 +612,19 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2">
+        <f>COUNTIF(B2:B71,"B")</f>
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <f>COUNTIF(B72:B161,"B")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -480,9 +634,19 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2">
+        <f>COUNTIF(B2:B71,"Other")</f>
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <f>COUNTIF(B72:B161,"Other")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -492,9 +656,19 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2">
+        <f>SUM(E6:E8)</f>
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <f>SUM(H6:H8)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -502,8 +676,9 @@
         <v>3</v>
       </c>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -511,8 +686,9 @@
         <v>3</v>
       </c>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -522,8 +698,11 @@
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -531,8 +710,9 @@
         <v>3</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -543,8 +723,12 @@
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="4"/>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -554,9 +738,19 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="5">
+        <f>100*E6/E$9</f>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5">
+        <f>100*H6/H$9</f>
+        <v>21.111111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -566,9 +760,19 @@
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:E17" si="0">100*E7/E$9</f>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <f>100*H7/H$9</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -578,9 +782,19 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5">
+        <f>100*H8/H$9</f>
+        <v>45.555555555555557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -590,9 +804,19 @@
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="6">
+        <f>SUM(E15:E17)</f>
+        <v>100</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUM(H15:H17)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -600,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -608,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -616,111 +840,200 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -728,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -736,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -744,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -752,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -760,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -768,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -776,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -784,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -792,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -800,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -808,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -816,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -824,7 +1137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -832,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -840,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -848,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -856,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -864,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -872,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -880,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -888,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -896,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -904,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -912,7 +1225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -920,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -928,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -936,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -944,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -952,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -960,7 +1273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -968,7 +1281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -976,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -984,7 +1297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -992,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -1000,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -1008,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -1016,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2</v>
       </c>
@@ -1024,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -1032,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2</v>
       </c>
@@ -1040,7 +1353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -1048,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2</v>
       </c>
@@ -1056,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -1064,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -1072,7 +1385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2</v>
       </c>
@@ -1080,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2</v>
       </c>
@@ -1088,7 +1401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2</v>
       </c>
@@ -1096,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2</v>
       </c>
@@ -1104,7 +1417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2</v>
       </c>
@@ -1112,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -1120,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -1128,7 +1441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2</v>
       </c>
@@ -1136,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2</v>
       </c>
@@ -1144,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2</v>
       </c>
@@ -1152,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2</v>
       </c>
@@ -1160,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -1168,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -1176,7 +1489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -1184,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -1192,7 +1505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2</v>
       </c>
@@ -1200,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2</v>
       </c>
@@ -1208,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2</v>
       </c>
@@ -1216,7 +1529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -1224,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2</v>
       </c>
@@ -1232,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -1240,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2</v>
       </c>
@@ -1248,7 +1561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2</v>
       </c>
@@ -1256,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2</v>
       </c>
@@ -1264,7 +1577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2</v>
       </c>
@@ -1272,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -1280,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2</v>
       </c>
@@ -1288,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>2</v>
       </c>
@@ -1296,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2</v>
       </c>
@@ -1304,7 +1617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -1312,7 +1625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2</v>
       </c>
@@ -1320,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -1328,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2</v>
       </c>
@@ -1336,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>2</v>
       </c>
@@ -1344,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>2</v>
       </c>
@@ -1352,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>2</v>
       </c>
@@ -1360,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>2</v>
       </c>
@@ -1368,7 +1681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>2</v>
       </c>
@@ -1376,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>2</v>
       </c>
@@ -1384,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>2</v>
       </c>
@@ -1392,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2</v>
       </c>
@@ -1400,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -1408,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>2</v>
       </c>
@@ -1416,7 +1729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>2</v>
       </c>
@@ -1424,7 +1737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>2</v>
       </c>
@@ -1432,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>2</v>
       </c>
@@ -1440,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>2</v>
       </c>
@@ -1448,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>2</v>
       </c>
@@ -1456,7 +1769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>2</v>
       </c>
@@ -1464,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>2</v>
       </c>
@@ -1472,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>2</v>
       </c>
@@ -1480,7 +1793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>2</v>
       </c>
@@ -1488,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -1496,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>2</v>
       </c>
@@ -1504,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>2</v>
       </c>
@@ -1512,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>2</v>
       </c>
@@ -1520,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>2</v>
       </c>
@@ -1528,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -1536,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>2</v>
       </c>
@@ -1544,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>2</v>
       </c>
@@ -1552,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>2</v>
       </c>
@@ -1560,7 +1873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>2</v>
       </c>
@@ -1568,7 +1881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>2</v>
       </c>
@@ -1576,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>2</v>
       </c>
@@ -1584,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>2</v>
       </c>
@@ -1592,7 +1905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>2</v>
       </c>
@@ -1600,7 +1913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2</v>
       </c>
@@ -1608,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2</v>
       </c>
@@ -1616,7 +1929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2</v>
       </c>
@@ -1624,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>2</v>
       </c>
@@ -1632,7 +1945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>2</v>
       </c>
@@ -1640,7 +1953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>2</v>
       </c>
@@ -1648,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>2</v>
       </c>
@@ -1656,7 +1969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2</v>
       </c>
@@ -1664,7 +1977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2</v>
       </c>
@@ -1672,7 +1985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2</v>
       </c>
@@ -1680,7 +1993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>2</v>
       </c>
@@ -1688,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>2</v>
       </c>
@@ -1696,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>2</v>
       </c>
@@ -1704,7 +2017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>2</v>
       </c>
@@ -1712,7 +2025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>2</v>
       </c>
@@ -1720,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>2</v>
       </c>
@@ -1728,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>2</v>
       </c>
@@ -1737,20 +2050,24 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D23:J34"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1759,12 +2076,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
